--- a/biology/Médecine/Azaria_di_Rossi/Azaria_di_Rossi.xlsx
+++ b/biology/Médecine/Azaria_di_Rossi/Azaria_di_Rossi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azaria (Benaiuto) di Rossi, dit Azarya min HaAdoumim (hébreu : עזריה מן האדומים « Azaria des Rouges, » c'est-à-dire d'Italie[1]), est un rabbin et médecin italien du XVIe siècle (né vers 1511 et mort vers 1578[2]), considéré comme l'un des plus éminents intellectuels du judaïsme italien. Érudit, dei Rossi connaissait toutes les œuvres juives, était familier avec la littérature gréco-latine et avait étudié la médecine. Il est le premier Juif à avoir fait usage d'une approche critique-historique des textes fondateurs du judaïsme rabbinique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azaria (Benaiuto) di Rossi, dit Azarya min HaAdoumim (hébreu : עזריה מן האדומים « Azaria des Rouges, » c'est-à-dire d'Italie), est un rabbin et médecin italien du XVIe siècle (né vers 1511 et mort vers 1578), considéré comme l'un des plus éminents intellectuels du judaïsme italien. Érudit, dei Rossi connaissait toutes les œuvres juives, était familier avec la littérature gréco-latine et avait étudié la médecine. Il est le premier Juif à avoir fait usage d'une approche critique-historique des textes fondateurs du judaïsme rabbinique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir habité Ferrare et Bologne, d’où les persécutions le chassèrent, il s’établit une seconde fois à Ferrare. Il entretint des relations avec les savants de son temps, qu’ils fussent juifs, marranes ou chrétiens et tous admiraient ses connaissances.
 Le premier, il compara les ouvrages rabbiniques et ceux de la civilisation judéo-grecque. Azariah cite des historiens comme Hérodote et Xénophon et des géographes comme Pline l'Ancien et Strabon. Il ne néglige pas les Pères de l'Église et cite Eusèbe de Césarée, Jérôme de Stridon et Augustin d'Hippone, Justin Martyr et Clément d'Alexandrie. Pour les maîtres médiévaux chrétiens il cite Thomas d'Aquin, Hugues de Saint-Victor, Dante, Pic de la Mirandole, etc.. 
